--- a/out/csv/siblingvaregs/summary_school_VA.xlsx
+++ b/out/csv/siblingvaregs/summary_school_VA.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunch\Dropbox\Davis\Research_Projects\Ed Lab GSR\caschls\out\csv\siblingvaregs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E1B04D-5BD2-4C6C-AE2C-6641DD4BDFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D711327-BD1B-45BC-8C68-624000F4B2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92087DD9-04AE-4143-AEFF-FFA24AFE7EF0}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{92087DD9-04AE-4143-AEFF-FFA24AFE7EF0}"/>
   </bookViews>
   <sheets>
     <sheet name="score-sd_FB_spec" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,23 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="33">
   <si>
     <t>s.d.</t>
   </si>
   <si>
-    <t>Forecast bias</t>
-  </si>
-  <si>
     <t>beta</t>
   </si>
   <si>
     <t>(SE)</t>
   </si>
   <si>
-    <t>Specification tests:</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 7th grade scores</t>
   </si>
   <si>
@@ -134,7 +131,10 @@
     <t>Base + 7 + sib + ACS</t>
   </si>
   <si>
-    <t>Specification tests leave out variables</t>
+    <t>Forecast Bias tests:</t>
+  </si>
+  <si>
+    <t>Specification Test</t>
   </si>
 </sst>
 </file>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59A89D3-1DB0-3A41-A085-C15C3A23460C}">
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="85" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -597,108 +597,108 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E5" s="9"/>
       <c r="G5" s="11"/>
@@ -708,56 +708,56 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="11"/>
@@ -765,16 +765,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="11"/>
@@ -782,13 +782,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="13"/>
@@ -797,10 +797,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="13"/>
@@ -809,11 +809,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="13"/>
@@ -827,7 +827,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="10"/>
       <c r="F13" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="14"/>
@@ -836,7 +836,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" s="9"/>
       <c r="G14" s="11"/>
@@ -846,324 +846,324 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="10"/>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="14"/>
       <c r="I17" s="12"/>
       <c r="J17" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="J18" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>0</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K22" s="11" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y22" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P24" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -1182,193 +1182,193 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" s="17"/>
       <c r="N26" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
       <c r="R26" s="17"/>
       <c r="X26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="4"/>
       <c r="Z26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA26" s="4"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M27" s="17"/>
       <c r="N27" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
       <c r="R27" s="17"/>
       <c r="X27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y27" s="4"/>
       <c r="Z27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA27" s="4"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P28" s="17"/>
       <c r="Q28" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R28" s="17"/>
       <c r="X28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA28" s="4"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P29" s="17"/>
       <c r="Q29" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R29" s="17"/>
       <c r="X29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y29" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA29" s="4"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="13"/>
       <c r="K30" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" s="11"/>
       <c r="M30" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O30" s="4"/>
       <c r="P30" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
@@ -1377,30 +1377,30 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="13"/>
       <c r="K31" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O31" s="4"/>
       <c r="P31" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q31" s="17"/>
       <c r="R31" s="17"/>
@@ -1409,14 +1409,14 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="13"/>
@@ -1425,24 +1425,24 @@
       <c r="M32" s="17"/>
       <c r="N32" s="4"/>
       <c r="O32" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
       <c r="R32" s="17"/>
       <c r="X32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="4"/>
       <c r="AA32" s="4"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="F33" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="13"/>
@@ -1451,34 +1451,34 @@
       <c r="M33" s="17"/>
       <c r="N33" s="4"/>
       <c r="O33" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
       <c r="R33" s="17"/>
       <c r="X33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y33" s="4"/>
       <c r="AA33" s="4"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="13"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -1491,17 +1491,17 @@
     <row r="35" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="F35" s="9"/>
       <c r="G35" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="13"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -1513,12 +1513,12 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="13"/>
@@ -1531,7 +1531,7 @@
       <c r="Q36" s="17"/>
       <c r="R36" s="17"/>
       <c r="X36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="4"/>
       <c r="AA36" s="4"/>
@@ -1545,7 +1545,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="14"/>
@@ -1558,7 +1558,7 @@
       <c r="Q37" s="18"/>
       <c r="R37" s="18"/>
       <c r="X37" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y37" s="5"/>
       <c r="Z37" s="2"/>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -1586,248 +1586,248 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M39" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P39" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q39" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R39" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Z39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
       <c r="M40" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P40" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q40" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R40" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Z40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="14"/>
       <c r="K41" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P41" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q41" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R41" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y41" s="5"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O42" s="4" t="s">
+      <c r="Q42" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="R42" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="R42" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="X42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AB42" t="s">
         <v>21</v>
-      </c>
-      <c r="AA42" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
